--- a/data-maju.xlsx
+++ b/data-maju.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Vscode projects\Green-on-demand\majubrownies-dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3397D870-B159-47CB-B292-A1BAEB2EA6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD7FF5B-F6AA-4965-ADCB-9AA8CD3333CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E494ECB1-D7D4-4410-AC6C-2C92280F1065}"/>
   </bookViews>
@@ -725,7 +725,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:M4"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
